--- a/Game Design/WeaponList.xlsx
+++ b/Game Design/WeaponList.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapons!$A$1:$R$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapons!$A$1:$Q$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Attack Bonus</t>
   </si>
   <si>
-    <t>Action Point Cost?</t>
-  </si>
-  <si>
     <t>Craft. Time</t>
   </si>
   <si>
@@ -125,7 +122,91 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Old S. A.</t>
+    <t>adze</t>
+  </si>
+  <si>
+    <t>Bow - stone arrows</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sickle</t>
+  </si>
+  <si>
+    <t>Barbed Harpoon</t>
+  </si>
+  <si>
+    <t>Spear Thrower (atlatl)</t>
+  </si>
+  <si>
+    <t>Simple Sickle</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Polished Axe</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>New Stone</t>
+  </si>
+  <si>
+    <t>Middle Stone</t>
+  </si>
+  <si>
+    <t>Old Stone</t>
+  </si>
+  <si>
+    <t>Copper Axe</t>
+  </si>
+  <si>
+    <t>Copper Spear</t>
+  </si>
+  <si>
+    <t>Copper Knife</t>
+  </si>
+  <si>
+    <t>Copper Dagger</t>
+  </si>
+  <si>
+    <t>Bronze Axe</t>
+  </si>
+  <si>
+    <t>Bronze Knife</t>
+  </si>
+  <si>
+    <t>Bronze Sword</t>
+  </si>
+  <si>
+    <t>Iron Axe</t>
+  </si>
+  <si>
+    <t>Iron Spear</t>
+  </si>
+  <si>
+    <t>Iron Knife</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>Bow - copper arrows</t>
+  </si>
+  <si>
+    <t>Bow - bronze arrows</t>
+  </si>
+  <si>
+    <t>Bow - iron arrows</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Iron</t>
   </si>
 </sst>
 </file>
@@ -550,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,19 +645,18 @@
     <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -596,89 +676,83 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -692,128 +766,119 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1">
         <v>2</v>
       </c>
       <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -827,40 +892,37 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
       <c r="P6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -874,40 +936,37 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -921,40 +980,37 @@
       <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
       <c r="P8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -968,36 +1024,215 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R9"/>
+  <autoFilter ref="A1:Q9"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Game Design/WeaponList.xlsx
+++ b/Game Design/WeaponList.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\GitHub\BeforeLegends\Game Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="8160"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapons!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapons!$A$1:$Q$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -83,36 +78,15 @@
     <t>P</t>
   </si>
   <si>
-    <t>Wooden Short Spear (held with one hand)</t>
-  </si>
-  <si>
-    <t>Wooden Short Spear (held with two hands)</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
     <t>Special Attack</t>
   </si>
   <si>
-    <t>Sp. At. cost</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +5% crit</t>
   </si>
   <si>
-    <t>Stone Short Spear (held with one hand)</t>
-  </si>
-  <si>
-    <t>Stone Short Spear (held with two hands)</t>
-  </si>
-  <si>
-    <t>Stone Short Spear (ranged 1H)</t>
-  </si>
-  <si>
-    <t>Stone Short Spear (ranged 2H)</t>
-  </si>
-  <si>
     <t>25% dazed</t>
   </si>
   <si>
@@ -207,13 +181,106 @@
   </si>
   <si>
     <t>Iron</t>
+  </si>
+  <si>
+    <t>material Type</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>Wooden long Spear</t>
+  </si>
+  <si>
+    <t>Stone long Spear</t>
+  </si>
+  <si>
+    <t>20% dazed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Short Spear </t>
+  </si>
+  <si>
+    <t>Stone Short Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +5% crit; +50% AS vs large </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +10% crit; +50% AS vs large </t>
+  </si>
+  <si>
+    <t>(Fine) Stone long Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +15% crit; +50% AS vs large </t>
+  </si>
+  <si>
+    <t>Stone Expert 1</t>
+  </si>
+  <si>
+    <t>Stone Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +15% crit</t>
+  </si>
+  <si>
+    <t>(Fine) Stone Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +20% crit</t>
+  </si>
+  <si>
+    <t>Stone Axe</t>
+  </si>
+  <si>
+    <t>(Fine) Stone Axe</t>
+  </si>
+  <si>
+    <t>Stone Expert 2</t>
+  </si>
+  <si>
+    <t>Wooden Bow</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Stone Arrow</t>
+  </si>
+  <si>
+    <t>(Fine) Stone Arrow</t>
+  </si>
+  <si>
+    <t>Bone Arrow</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Bone Expert 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone Short Spear </t>
+  </si>
+  <si>
+    <t>Bone Dagger</t>
+  </si>
+  <si>
+    <t>Bone Club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +309,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +341,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,15 +421,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -348,6 +442,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -411,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,30 +744,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -654,88 +775,92 @@
     <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>10</v>
@@ -747,33 +872,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="13">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
@@ -791,36 +916,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
         <v>3</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>10</v>
@@ -829,121 +945,86 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>10</v>
@@ -961,278 +1042,697 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>3</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="R9" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="13">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2</v>
+      </c>
+      <c r="R28" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3</v>
+      </c>
+      <c r="R29" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="K40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="K48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="K51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="K54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="K55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q9"/>
+  <autoFilter ref="A1:Q7">
+    <filterColumn colId="2"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Game Design/WeaponList.xlsx
+++ b/Game Design/WeaponList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>Bone Club</t>
+  </si>
+  <si>
+    <t>(Fine) Bone Arrow</t>
+  </si>
+  <si>
+    <t>Sling</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Stone Slingshot</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -886,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1009,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1056,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1205,7 +1217,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="13">
         <v>4</v>
@@ -1237,7 +1249,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13">
         <v>5</v>
@@ -1269,7 +1281,7 @@
         <v>78</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="13">
         <v>3</v>
@@ -1511,7 +1523,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -1547,39 +1559,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="1" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>35</v>
+      <c r="L32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>35</v>
@@ -1587,7 +1627,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>35</v>
@@ -1595,55 +1638,55 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>33</v>
@@ -1651,7 +1694,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>33</v>
@@ -1659,31 +1702,31 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>51</v>
@@ -1691,31 +1734,31 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>52</v>
@@ -1723,9 +1766,33 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>52</v>
       </c>
     </row>
